--- a/Banking-Docker.xlsx
+++ b/Banking-Docker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrunalmodi/Documents/GitHub/BankingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FEE1B-21BC-2844-9F4A-5E10AD75BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0B09D-3B92-B048-B0FE-FF8DDA449764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7580" yWindow="-28300" windowWidth="51200" windowHeight="26900" xr2:uid="{B058DDC0-BDED-2946-8013-316A6CC1C0BF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{B058DDC0-BDED-2946-8013-316A6CC1C0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="MERN" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Step</t>
   </si>
@@ -298,29 +298,13 @@
     <t>npm install express</t>
   </si>
   <si>
-    <t>npm install faker</t>
-  </si>
-  <si>
     <t>npm install mongoose</t>
   </si>
   <si>
     <t>make build</t>
   </si>
   <si>
-    <t xml:space="preserve">make run
-</t>
-  </si>
-  <si>
     <t>docker-compose.yml</t>
-  </si>
-  <si>
-    <t>mkdir -p ./mern-app/server</t>
-  </si>
-  <si>
-    <t>mkdir -p ./mern-app/database/</t>
-  </si>
-  <si>
-    <t>cd ./mern-app/server; npm init</t>
   </si>
   <si>
     <t>npm install cors</t>
@@ -362,19 +346,7 @@
   </si>
   <si>
     <t>build:
-	docker build -t mmodi/server .</t>
-  </si>
-  <si>
-    <t>build:
 	docker build -t mmodi/database .</t>
-  </si>
-  <si>
-    <t>build:
-	cd client &amp;&amp; $(MAKE) build
-	cd server &amp;&amp; $(MAKE) build
-	cd database &amp;&amp; $(MAKE) build
-run:
-	docker-compose up</t>
   </si>
   <si>
     <r>
@@ -482,6 +454,42 @@
       <t>- ./database:/data/db</t>
     </r>
   </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>mkdir ./database</t>
+  </si>
+  <si>
+    <t>mkdir ./backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make build; make run
+</t>
+  </si>
+  <si>
+    <t>npm install --save-dev @babel/core</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> npm install --save-dev @babel/cli</t>
+  </si>
+  <si>
+    <t>npm install --save-dev @babel/preset-env</t>
+  </si>
+  <si>
+    <t>npm install --save-dev @babel/node</t>
+  </si>
+  <si>
+    <t>build:
+	cd backend &amp;&amp; $(MAKE) build
+	cd database &amp;&amp; $(MAKE) build
+run:
+	docker-compose up</t>
+  </si>
+  <si>
+    <t>build:
+	docker build -t mmodi/backend .</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -603,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -640,7 +651,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>191303</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1756229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -805,7 +816,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76891</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1048242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -971,7 +982,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>145375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1128,7 +1139,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>599416</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1285,7 +1296,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285182</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1425,7 +1436,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>API</a:t>
+            <a:t>Node</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1443,13 +1454,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>158103</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>599416</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1600,13 +1611,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>669369</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285182</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1757,13 +1768,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>529561</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>145374</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1914,13 +1925,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1971,13 +1982,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2028,13 +2039,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337468</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>170337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337469</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>464765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2085,13 +2096,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>155949</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>597262</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1618121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2242,13 +2253,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>667215</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>283028</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1618121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2399,13 +2410,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>146407</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>536408</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1618121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2556,13 +2567,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>475122</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2613,13 +2624,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337468</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>873037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>341408</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2670,13 +2681,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>789355</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>740266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791508</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209896</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4005,13 +4016,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2378205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>191303</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>15222</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4170,13 +4181,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15954</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2869078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76891</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>604449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4336,13 +4347,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>529562</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3199471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>145375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4493,13 +4504,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>158103</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>599416</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4650,13 +4661,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>669369</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285182</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4796,14 +4807,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>PROXY</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>server</a:t>
+            <a:t>NGINX</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4814,13 +4818,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>158103</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>599416</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>429244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4971,13 +4975,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>669369</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285182</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>429244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5128,13 +5132,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>529561</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>145374</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>429244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5285,13 +5289,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5342,13 +5346,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5399,13 +5403,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337468</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337469</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5456,13 +5460,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>155949</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>597262</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1174328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5613,13 +5617,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>667215</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>283028</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1174328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5770,13 +5774,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>146407</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>536408</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1174328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5927,13 +5931,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>475122</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>429244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766056</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5984,13 +5988,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337468</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>429244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>341408</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766056</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6041,13 +6045,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>789355</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>296473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791508</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>766103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6096,13 +6100,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>337999</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2713418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>415210</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3046171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6253,13 +6257,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>789355</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6310,13 +6314,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>23767</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2716440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>100978</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3049193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6467,13 +6471,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>475123</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3048839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477277</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3210802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6523,13 +6527,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>709460</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2718331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>786671</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3051084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6680,13 +6684,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335316</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3050730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337469</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3199471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6737,13 +6741,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>337999</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2232279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>415210</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2565032</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6894,13 +6898,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>789355</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>791510</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2726640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6950,13 +6954,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>23767</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2235301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>100978</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2568054</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7107,13 +7111,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>475123</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2567700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477277</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2729662</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7163,13 +7167,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>709460</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2237194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>786671</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2569947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7320,13 +7324,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335316</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2569593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>337468</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2718332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7376,13 +7380,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>353249</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3204404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>794562</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7540,13 +7544,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533147</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2713064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>610358</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7697,13 +7701,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>159003</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161157</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7753,13 +7757,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533147</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2231925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>610358</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7910,13 +7914,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>159003</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161157</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2726286</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7966,13 +7970,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161156</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8026,13 +8030,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>75008</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3204404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516321</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8190,13 +8194,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254906</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2713064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>332117</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8347,13 +8351,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>706262</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>708416</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8403,13 +8407,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254906</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2231925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>332117</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8560,13 +8564,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>706262</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>708416</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2726286</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8616,13 +8620,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>708415</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398331</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8676,13 +8680,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>620112</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3204050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>235925</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8840,13 +8844,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>800010</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2712710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51721</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8997,13 +9001,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>425866</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3045109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>428020</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3207072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9053,13 +9057,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>800010</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2231571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>51721</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2564324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9210,13 +9214,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>425866</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2563970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>428020</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2725932</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9266,13 +9270,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>477276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4394601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>428019</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4398331</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9622,10 +9626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C113FB61-1228-674B-B619-65ACE22F35AE}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9652,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9663,13 +9667,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
+      <c r="E2" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9680,158 +9684,185 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E12" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E13" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="352" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2" t="s">
+    <row r="14" spans="1:5" ht="352" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E14" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>25</v>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
